--- a/excel/加密货币利润公式.xlsx
+++ b/excel/加密货币利润公式.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\svn\githup\win\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3651D9-D2A8-462E-9DF2-A83F313F38A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82A456A-6253-4D7A-B3E2-695CF67CA160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,6 +52,18 @@
   </si>
   <si>
     <t>手续费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHIB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BTC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>etc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -379,14 +391,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.25" customWidth="1"/>
     <col min="7" max="7" width="12.625" customWidth="1"/>
   </cols>
@@ -446,17 +460,89 @@
         <v>1E-3</v>
       </c>
       <c r="D3">
-        <v>0.32888000000000001</v>
+        <v>0.36</v>
       </c>
       <c r="E3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="F3">
-        <v>0.31</v>
+        <v>0.37</v>
       </c>
       <c r="G3">
         <f>E3*(F3*(1-0.1%)^2-D3)</f>
-        <v>-9.7498450000000076</v>
+        <v>0.92603700000000178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>44352</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="D4">
+        <v>8.9599999999999996E-5</v>
+      </c>
+      <c r="E4">
+        <v>10000000</v>
+      </c>
+      <c r="F4">
+        <v>1.0399999999999999E-4</v>
+      </c>
+      <c r="G4">
+        <f>E4*(F4*(1-0.1%)^2-D4)</f>
+        <v>141.92104000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>44352</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="D5">
+        <v>35555</v>
+      </c>
+      <c r="E5">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F5">
+        <v>37701</v>
+      </c>
+      <c r="G5">
+        <f>E5*(F5*(1-0.1%)^2-D5)</f>
+        <v>8.2825428039999967</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>44352</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="D6">
+        <v>2552</v>
+      </c>
+      <c r="E6">
+        <v>0.05</v>
+      </c>
+      <c r="F6">
+        <v>2766</v>
+      </c>
+      <c r="G6">
+        <f>E6*(F6*(1-0.1%)^2-D6)</f>
+        <v>10.423538299999997</v>
       </c>
     </row>
   </sheetData>

--- a/excel/加密货币利润公式.xlsx
+++ b/excel/加密货币利润公式.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\svn\githup\win\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82A456A-6253-4D7A-B3E2-695CF67CA160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F656D3C7-0026-4270-A3DD-2624B234FF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>etc</t>
+    <t>ETH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -391,18 +391,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.25" customWidth="1"/>
-    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -445,7 +445,7 @@
         <v>0.34179999999999999</v>
       </c>
       <c r="G2">
-        <f>E2*(F2*(1-0.1%)^2-D2)</f>
+        <f t="shared" ref="G2:G6" si="0">E2*(F2*(1-0.1%)^2-D2)</f>
         <v>6.1183709000000031</v>
       </c>
     </row>
@@ -469,7 +469,7 @@
         <v>0.37</v>
       </c>
       <c r="G3">
-        <f>E3*(F3*(1-0.1%)^2-D3)</f>
+        <f t="shared" si="0"/>
         <v>0.92603700000000178</v>
       </c>
     </row>
@@ -493,7 +493,7 @@
         <v>1.0399999999999999E-4</v>
       </c>
       <c r="G4">
-        <f>E4*(F4*(1-0.1%)^2-D4)</f>
+        <f t="shared" si="0"/>
         <v>141.92104000000006</v>
       </c>
     </row>
@@ -517,7 +517,7 @@
         <v>37701</v>
       </c>
       <c r="G5">
-        <f>E5*(F5*(1-0.1%)^2-D5)</f>
+        <f t="shared" si="0"/>
         <v>8.2825428039999967</v>
       </c>
     </row>
@@ -541,9 +541,17 @@
         <v>2766</v>
       </c>
       <c r="G6">
-        <f>E6*(F6*(1-0.1%)^2-D6)</f>
+        <f t="shared" si="0"/>
         <v>10.423538299999997</v>
       </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="C8" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/excel/加密货币利润公式.xlsx
+++ b/excel/加密货币利润公式.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\svn\githup\win\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\svn\githup\win\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F656D3C7-0026-4270-A3DD-2624B234FF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC89621-27A6-4B2C-9385-B8EC3F1F65EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3540" yWindow="915" windowWidth="21600" windowHeight="14220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,6 +64,10 @@
   </si>
   <si>
     <t>ETH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预备金</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -391,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -405,7 +409,7 @@
     <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -424,8 +428,11 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44351</v>
       </c>
@@ -445,11 +452,14 @@
         <v>0.34179999999999999</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:G6" si="0">E2*(F2*(1-0.1%)^2-D2)</f>
-        <v>6.1183709000000031</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <f>I2/D2*(F2*(1-0.1%)^2-D2)</f>
+        <v>18.603657565069334</v>
+      </c>
+      <c r="I2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44351</v>
       </c>
@@ -469,11 +479,14 @@
         <v>0.37</v>
       </c>
       <c r="G3">
-        <f t="shared" si="0"/>
-        <v>0.92603700000000178</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <f>I3/D3*(F3*(1-0.1%)^2-D3)</f>
+        <v>12.861625000000025</v>
+      </c>
+      <c r="I3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44352</v>
       </c>
@@ -493,11 +506,14 @@
         <v>1.0399999999999999E-4</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
-        <v>141.92104000000006</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <f>I4/D4*(F4*(1-0.1%)^2-D4)</f>
+        <v>79.197008928571464</v>
+      </c>
+      <c r="I4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44352</v>
       </c>
@@ -517,11 +533,14 @@
         <v>37701</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
-        <v>8.2825428039999967</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <f t="shared" ref="G5:G7" si="0">I5/D5*(F5*(1-0.1%)^2-D5)</f>
+        <v>29.118769526086332</v>
+      </c>
+      <c r="I5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44352</v>
       </c>
@@ -532,24 +551,51 @@
         <v>1E-3</v>
       </c>
       <c r="D6">
-        <v>2552</v>
+        <v>1700</v>
       </c>
       <c r="E6">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F6">
-        <v>2766</v>
+        <v>1983</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>10.423538299999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>82.069406764705874</v>
+      </c>
+      <c r="I6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>44352</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="D7">
+        <v>1700</v>
+      </c>
+      <c r="E7">
+        <f>I7/D7</f>
+        <v>0.29411764705882354</v>
+      </c>
+      <c r="F7">
+        <v>1983</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>82.069406764705874</v>
+      </c>
+      <c r="I7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="C8" s="2"/>
     </row>
